--- a/Project_RPSRobot_20200330_0/Project_RPSRobot_20200330_0.xlsx
+++ b/Project_RPSRobot_20200330_0/Project_RPSRobot_20200330_0.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a59c1bdb761853cd/NAER/EELAB/EELAB/Project_RPSRobot_20200330_0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="436" documentId="11_F25DC773A252ABDACC1048E0995B61245BDE58ED" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2655D019-17C8-415D-86B6-63CC950CC079}"/>
+  <xr:revisionPtr revIDLastSave="575" documentId="11_F25DC773A252ABDACC1048E0995B61245BDE58ED" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{58116A87-7C67-4073-9B0C-894CEFDAEF07}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8172" yWindow="372" windowWidth="13992" windowHeight="12084" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HWSystemDiagram" sheetId="1" r:id="rId1"/>
     <sheet name="pins" sheetId="2" r:id="rId2"/>
     <sheet name="ServoDirection" sheetId="3" r:id="rId3"/>
     <sheet name="ServoAdapter" sheetId="4" r:id="rId4"/>
+    <sheet name="工作表1" sheetId="5" r:id="rId5"/>
+    <sheet name="matchScoreTable" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="113">
   <si>
     <t>AVR</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -379,10 +381,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FlexSensors Adapter-Finger4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UI Board-StartButton</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -455,6 +453,42 @@
   </si>
   <si>
     <t>UI Board-LossLED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Used for Random Seed </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Robot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,7 +496,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -474,6 +508,14 @@
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -546,7 +588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -564,6 +606,7 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -6874,6 +6917,1111 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線接點 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{541AE1BF-C0AE-4DF7-B7F0-CBFAF11DE62B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1638300" y="1318260"/>
+          <a:ext cx="7620" cy="4206240"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="762901" cy="468013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文字方塊 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90EBD69A-2A2F-4A60-AE5A-CDCDAA1F1508}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1021080" y="579120"/>
+          <a:ext cx="762901" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2400"/>
+            <a:t>User</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1408655" cy="468013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文字方塊 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74117B39-7B4A-45CA-AD83-4E7EC3497FD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4320540" y="617220"/>
+          <a:ext cx="1408655" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2400"/>
+            <a:t>RSPRobot</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線單箭頭接點 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A54740C9-3990-49F8-A2A1-45BDDAB9EC85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1653540" y="1897380"/>
+          <a:ext cx="3268980" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1350626" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="文字方塊 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8A8A0B7-2588-4742-B4CA-B83A94829156}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2667000" y="1630680"/>
+          <a:ext cx="1350626" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>Pushs "start" button</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1320361" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="文字方塊 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2E2A613-7602-4187-A7E8-B8E9B113BFED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4259580" y="1996440"/>
+          <a:ext cx="1320361" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>Display</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" baseline="0"/>
+            <a:t> countdowm</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1304075" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="文字方塊 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA053CCB-DB82-4247-A3F0-ADC3474D3945}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4282440" y="2948940"/>
+          <a:ext cx="1304075" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>Competition Period</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="右大括弧 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24656E1C-8067-4A35-92B8-080A4896D2CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5509260" y="2788920"/>
+          <a:ext cx="342900" cy="586740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="580095" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="文字方塊 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3DFE8AB-31A0-433B-8490-3EB508E9EACD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5669280" y="2834640"/>
+          <a:ext cx="580095" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" baseline="0"/>
+            <a:t>0.5 sec</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1354217" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="文字方塊 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6170F81-AC46-4B49-8532-1D5D1CBE0972}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4160520" y="3459480"/>
+          <a:ext cx="1354217" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>Check User Respose</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>(Glove</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" baseline="0"/>
+            <a:t> data reading)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="639791" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="文字方塊 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18773B6F-20B8-4A2E-87E6-C8377FAB1732}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1333500" y="2979420"/>
+          <a:ext cx="639791" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>Gesture</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線單箭頭接點 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47FCFE01-FCAB-4CA6-AA6F-9BC6F946EC59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1661160" y="3238500"/>
+          <a:ext cx="3154680" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="639791" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="文字方塊 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D726F1E4-CB5C-4F77-9721-D72309541ECE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1363980" y="3421380"/>
+          <a:ext cx="639791" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>Keep </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>Gesture</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1296252" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="文字方塊 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CDABD8B-C3BB-4C4F-80AC-9647D253D587}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4290060" y="4229100"/>
+          <a:ext cx="1296252" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>Compute the result</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1180580" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="文字方塊 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15976F96-C19E-409B-938C-BFC1B7A7B80A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4320540" y="4777740"/>
+          <a:ext cx="1180580" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>Display</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" baseline="0"/>
+            <a:t> the result</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線接點 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4F6EFAC-7CC9-469B-8291-3F7667018BF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1394460" y="2766060"/>
+          <a:ext cx="4381500" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直線接點 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7B6C9BC-CAC3-4304-A08B-4E7531E11069}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1424940" y="3406140"/>
+          <a:ext cx="4381500" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直線接點 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28CE240D-B77A-460D-9FA1-A53A31B47A79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4922520" y="1249680"/>
+          <a:ext cx="7620" cy="4206240"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="922945" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="文字方塊 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3798A79F-CF20-45FC-A893-7996F0A7425C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4511040" y="2392680"/>
+          <a:ext cx="922945" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>Servos Move</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7142,7 +8290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="AJ26" sqref="AJ26"/>
     </sheetView>
   </sheetViews>
@@ -7160,7 +8308,7 @@
   <dimension ref="A5:H25"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -7219,7 +8367,7 @@
         <v>65</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>17</v>
@@ -7241,7 +8389,7 @@
         <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>17</v>
@@ -7265,7 +8413,7 @@
         <v>67</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>17</v>
@@ -7289,7 +8437,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>39</v>
@@ -7311,7 +8459,7 @@
         <v>69</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>21</v>
@@ -7416,8 +8564,8 @@
       <c r="B16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>85</v>
+      <c r="C16" s="13" t="s">
+        <v>104</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>48</v>
@@ -7440,7 +8588,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>44</v>
@@ -7497,7 +8645,7 @@
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>27</v>
@@ -7518,7 +8666,7 @@
         <v>6</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>23</v>
@@ -7541,7 +8689,7 @@
         <v>76</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>37</v>
@@ -7561,7 +8709,7 @@
         <v>77</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>17</v>
@@ -7583,7 +8731,7 @@
         <v>78</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>17</v>
@@ -7605,7 +8753,7 @@
         <v>79</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>42</v>
@@ -7639,35 +8787,35 @@
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s">
         <v>98</v>
-      </c>
-      <c r="C3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
         <v>100</v>
-      </c>
-      <c r="C4" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s">
         <v>98</v>
-      </c>
-      <c r="C5" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -7697,4 +8845,139 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7401B850-25D7-4E26-9E19-C6A0AEE4577A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6A08F1-6316-477B-BE74-D1F207CF513E}">
+  <dimension ref="A4:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Project_RPSRobot_20200330_0/Project_RPSRobot_20200330_0.xlsx
+++ b/Project_RPSRobot_20200330_0/Project_RPSRobot_20200330_0.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a59c1bdb761853cd/NAER/EELAB/EELAB/Project_RPSRobot_20200330_0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="575" documentId="11_F25DC773A252ABDACC1048E0995B61245BDE58ED" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{58116A87-7C67-4073-9B0C-894CEFDAEF07}"/>
+  <xr:revisionPtr revIDLastSave="588" documentId="11_F25DC773A252ABDACC1048E0995B61245BDE58ED" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6B75B555-81E6-4FCD-9968-278093374913}"/>
   <bookViews>
-    <workbookView xWindow="8172" yWindow="372" windowWidth="13992" windowHeight="12084" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="HWSystemDiagram" sheetId="1" r:id="rId1"/>
-    <sheet name="pins" sheetId="2" r:id="rId2"/>
-    <sheet name="ServoDirection" sheetId="3" r:id="rId3"/>
-    <sheet name="ServoAdapter" sheetId="4" r:id="rId4"/>
-    <sheet name="工作表1" sheetId="5" r:id="rId5"/>
-    <sheet name="matchScoreTable" sheetId="6" r:id="rId6"/>
+    <sheet name="History" sheetId="7" r:id="rId1"/>
+    <sheet name="HWSystemDiagram" sheetId="1" r:id="rId2"/>
+    <sheet name="pins" sheetId="2" r:id="rId3"/>
+    <sheet name="ServoDirection" sheetId="3" r:id="rId4"/>
+    <sheet name="ServoAdapter" sheetId="4" r:id="rId5"/>
+    <sheet name="Interactive sequnce" sheetId="5" r:id="rId6"/>
+    <sheet name="matchScoreTable" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="118">
   <si>
     <t>AVR</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -489,6 +490,27 @@
   </si>
   <si>
     <t>W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Win</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Added sheet "matchScoreTable"
+Modified sheet "pins"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAER T.I.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,7 +610,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -607,6 +629,9 @@
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -8287,6 +8312,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC3886C-F60B-4A5C-A85A-A3DB892384B4}">
+  <dimension ref="A4:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>20200404</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8303,7 +8360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD0389E1-4AFF-475A-90D0-EB65AF0D5B90}">
   <dimension ref="A5:H25"/>
   <sheetViews>
@@ -8772,7 +8829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B20BD5A-8D8A-4622-8FF4-009BC882D92D}">
   <dimension ref="A3:C5"/>
   <sheetViews>
@@ -8826,7 +8883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2F1A10-2D19-4BB8-A7AC-162D371FEE94}">
   <dimension ref="O5"/>
   <sheetViews>
@@ -8847,12 +8904,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7401B850-25D7-4E26-9E19-C6A0AEE4577A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -8863,12 +8920,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6A08F1-6316-477B-BE74-D1F207CF513E}">
   <dimension ref="A4:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -8954,7 +9011,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -8962,7 +9019,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -8970,7 +9027,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -8979,5 +9036,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project_RPSRobot_20200330_0/Project_RPSRobot_20200330_0.xlsx
+++ b/Project_RPSRobot_20200330_0/Project_RPSRobot_20200330_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a59c1bdb761853cd/NAER/EELAB/EELAB/Project_RPSRobot_20200330_0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="588" documentId="11_F25DC773A252ABDACC1048E0995B61245BDE58ED" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6B75B555-81E6-4FCD-9968-278093374913}"/>
+  <xr:revisionPtr revIDLastSave="770" documentId="11_F25DC773A252ABDACC1048E0995B61245BDE58ED" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{60129B1A-7519-45E7-B4A6-B079D80BB22C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="History" sheetId="7" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="ServoAdapter" sheetId="4" r:id="rId5"/>
     <sheet name="Interactive sequnce" sheetId="5" r:id="rId6"/>
     <sheet name="matchScoreTable" sheetId="6" r:id="rId7"/>
+    <sheet name="MachineLearningANN" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="120">
   <si>
     <t>AVR</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -513,6 +514,14 @@
     <t>NAER T.I.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Added sheet "MachineLearning ANN"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modified sheet "Interactive sequnce"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -7297,7 +7306,7 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1304075" cy="264560"/>
+    <xdr:ext cx="1304075" cy="448136"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="文字方塊 10">
@@ -7312,7 +7321,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4282440" y="2948940"/>
-          <a:ext cx="1304075" cy="264560"/>
+          <a:ext cx="1304075" cy="448136"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7342,6 +7351,12 @@
           <a:r>
             <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
             <a:t>Competition Period</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>(Buzzer)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8042,6 +8057,6339 @@
             <a:t>Servos Move</a:t>
           </a:r>
           <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>294311</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>150124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>237705</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>30183</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="橢圓 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A4D6F8E-92E2-4CED-A7DE-CDCD620D2FC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4173584" y="3447506"/>
+          <a:ext cx="497576" cy="461950"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>301931</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142503</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>245325</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>22563</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="橢圓 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC9E8AA1-88DE-4B8E-AF95-915C1729A25E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4181204" y="4409703"/>
+          <a:ext cx="497576" cy="461951"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>286691</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>165364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>220189</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>45423</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="橢圓 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66327424-04BD-4134-B6AA-ED7EDE8B018D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4165964" y="5402382"/>
+          <a:ext cx="487680" cy="461950"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>292134</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>164275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>221278</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38891</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="橢圓 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4C38DF0-7BAB-4913-87AE-92B846ACA83E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6388134" y="3849584"/>
+          <a:ext cx="483326" cy="456507"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>299754</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>16031</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238794</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>82631</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="橢圓 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC7F6D97-4B08-40E4-9F04-A44A7A99B5B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6395754" y="5059086"/>
+          <a:ext cx="493222" cy="454527"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>284514</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>97872</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>213658</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171894</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="橢圓 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EB8A7E4-5132-4576-BC6D-9BE29E968CA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6380514" y="2619399"/>
+          <a:ext cx="483326" cy="461950"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>284514</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>46512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>213658</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>113112</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="橢圓 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{633DB0EF-7972-447B-9506-3B66FC16B337}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6380514" y="6253348"/>
+          <a:ext cx="483326" cy="454528"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>293223</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>175161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>222367</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>49777</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="橢圓 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A2032EB-1F1E-47DC-AF25-2C4D868D90ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8605950" y="3860470"/>
+          <a:ext cx="483326" cy="456507"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>300843</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>26917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>239884</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>93517</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="橢圓 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A51755BB-65D7-49C0-BB1B-3A23F4564510}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8613570" y="5069972"/>
+          <a:ext cx="493223" cy="454527"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>285603</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>108758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>214747</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>182780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="橢圓 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41BBA26F-A623-4915-B804-06D45038EBAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8598330" y="2630285"/>
+          <a:ext cx="483326" cy="461950"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>285603</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>55419</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>214747</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123998</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="橢圓 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA579683-AFB0-48AC-9011-16E9FDAD2531}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8598330" y="6262255"/>
+          <a:ext cx="483326" cy="456507"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>529442</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>186047</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>468483</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>58684</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="橢圓 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6A8B7C5-8ECD-441F-B2D1-2F111B2723AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11058897" y="3483429"/>
+          <a:ext cx="493222" cy="454528"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>537062</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>172983</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>476103</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>53043</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="橢圓 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91E93356-6D2A-48A4-91C7-337CC65C4C06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11066517" y="4440183"/>
+          <a:ext cx="493222" cy="461951"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>521822</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>7323</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>460863</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>73923</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="橢圓 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C5B17E0-2853-41B7-8340-915EB0FA9463}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11051277" y="5438305"/>
+          <a:ext cx="493222" cy="454527"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>496784</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>35625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1155894" cy="530658"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="文字方塊 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86E40A97-49A8-419B-B96E-52721AD36B84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6038602" y="1975261"/>
+          <a:ext cx="1155894" cy="530658"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2800"/>
+            <a:t>Layer0</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>529443</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>13854</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1155894" cy="530658"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="文字方塊 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECF69E50-0A7D-476D-A77E-DF29743BFADD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8287988" y="1953490"/>
+          <a:ext cx="1155894" cy="530658"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2800"/>
+            <a:t>Layer1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>105889</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66305</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2040687" cy="530658"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="文字方塊 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86C79F5A-40E1-4412-9B13-F18AD3E311A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10081162" y="2005941"/>
+          <a:ext cx="2040687" cy="530658"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2800"/>
+            <a:t>ANNOutputs</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>203860</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66305</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1773114" cy="530658"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="文字方塊 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1529A202-B66D-418F-89D2-4E55E9846480}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3528951" y="2005941"/>
+          <a:ext cx="1773114" cy="530658"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2800"/>
+            <a:t>ANNInputs</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>268185</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>98961</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1477392" cy="405432"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="文字方塊 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E045014F-A987-4412-954B-A013C4AF2E97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2484912" y="3396343"/>
+          <a:ext cx="1477392" cy="405432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>index finger </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409699</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>120732</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1314142" cy="405432"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="文字方塊 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F67B94F-A052-49F0-A214-85F4555EA09B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2626426" y="4387932"/>
+          <a:ext cx="1314142" cy="405432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ring finger </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>105889</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>186046</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="879793" cy="405432"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="文字方塊 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4686CFF-99F8-4198-ACAC-4CD56D68CCE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2876798" y="5423064"/>
+          <a:ext cx="879793" cy="405432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>thumb</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>7917</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2970</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="634341" cy="405432"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="文字方塊 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42DDE3E0-21CA-40E6-BB07-AC4C3B71A551}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11645735" y="3494315"/>
+          <a:ext cx="634341" cy="405432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>rock</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>507671</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2968</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="977768" cy="405432"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="文字方塊 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FB8BD86-FD20-4AAF-A129-AF6DF6CBEE3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11591307" y="4464132"/>
+          <a:ext cx="977768" cy="405432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>scissors</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>518556</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>46511</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="794128" cy="405432"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="文字方塊 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E405766C-F0B8-407C-9CA3-71B84F651A9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11602192" y="5477493"/>
+          <a:ext cx="794128" cy="405432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000"/>
+            <a:t>paper</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>237705</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>134883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>284514</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>187137</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線接點 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ECC63C5-4F9F-4B39-B437-746D3598DFCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="6"/>
+          <a:endCxn id="7" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4671160" y="2850374"/>
+          <a:ext cx="1709354" cy="828108"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>245325</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>134883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>284514</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>179515</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直線接點 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9CCC28B-B637-4744-9197-CCC75B88E1FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="6"/>
+          <a:endCxn id="7" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4678780" y="2850374"/>
+          <a:ext cx="1701734" cy="1790305"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>220189</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>134883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>284514</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>8412</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線接點 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A103F19-AA95-403A-AEA6-1D5092F13E75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="6"/>
+          <a:endCxn id="7" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4653644" y="2850374"/>
+          <a:ext cx="1726870" cy="2782983"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>237705</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>187137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>292134</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>4602</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直線接點 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{258E75C5-4429-41A1-8C3B-E4E1A6166473}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="6"/>
+          <a:endCxn id="5" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4671160" y="3678482"/>
+          <a:ext cx="1716974" cy="399356"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>245325</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>4602</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>292134</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>179515</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直線接點 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAAD9740-E0F5-4B19-BBB3-C9A8FD0AA9C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="6"/>
+          <a:endCxn id="5" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4678780" y="4077838"/>
+          <a:ext cx="1709354" cy="562841"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>220189</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>4602</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>292134</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>8412</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線接點 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFDA150E-9699-4C85-9CD3-D5F92612CBB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="6"/>
+          <a:endCxn id="5" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4653644" y="4077838"/>
+          <a:ext cx="1734490" cy="1555519"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>237705</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>187137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>299754</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>50322</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直線接點 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB75D1AF-EE3F-4107-A27A-ED122F66E568}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="6"/>
+          <a:endCxn id="6" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4671160" y="3678482"/>
+          <a:ext cx="1724594" cy="1608858"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>245325</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>179515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>299754</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>50322</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線接點 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B60DE5D6-9931-4C10-8179-B9BA0DA83210}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="6"/>
+          <a:endCxn id="6" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4678780" y="4640679"/>
+          <a:ext cx="1716974" cy="646661"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>220189</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>50322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>299754</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>8412</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線接點 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97E4CAD9-868C-4CAD-9C1E-BDA24900E097}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="6"/>
+          <a:endCxn id="6" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4653644" y="5287340"/>
+          <a:ext cx="1742110" cy="346017"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>237705</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>187137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>355295</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>111967</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直線接點 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F977D2CB-79DF-4555-B3A8-27F1BFFCF751}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="6"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4671160" y="3678482"/>
+          <a:ext cx="1780135" cy="2640321"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>245325</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>179515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>355295</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>111967</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線接點 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94D2BC3E-1D00-4468-B09B-482A3AA1852E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="6"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4678780" y="4640679"/>
+          <a:ext cx="1772515" cy="1678124"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>220189</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>8412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>355295</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>111967</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直線接點 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47B6316C-3AB4-496B-8D19-AD6F8FAACCD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="6"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4653644" y="5633357"/>
+          <a:ext cx="1797651" cy="685446"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>214747</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>145769</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>529442</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>26374</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="直線接點 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAB67239-708B-47F8-A620-9AD1BACBE698}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="6"/>
+          <a:endCxn id="17" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9081656" y="2861260"/>
+          <a:ext cx="1977241" cy="850423"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>222367</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>26374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>529442</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>15488</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="直線接點 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EB5BD4D-0315-4940-9213-474EA00E0319}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="2"/>
+          <a:endCxn id="9" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9089276" y="3711683"/>
+          <a:ext cx="1969621" cy="377041"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>239884</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>26374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>529442</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>59228</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="直線接點 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B6E3908-704F-4B96-92A3-88968F971516}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="2"/>
+          <a:endCxn id="10" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9106793" y="3711683"/>
+          <a:ext cx="1952104" cy="1584563"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>214747</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>26374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>529442</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>89708</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直線接點 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3F62787-211B-42ED-B0D3-D5DCF85E875B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="2"/>
+          <a:endCxn id="12" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9081656" y="3711683"/>
+          <a:ext cx="1977241" cy="2778825"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>214747</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>145769</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>537062</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>16032</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直線接點 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CFCE80F-EBD7-4FED-A6BE-CFE4A4865B6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="2"/>
+          <a:endCxn id="11" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9081656" y="2861260"/>
+          <a:ext cx="1984861" cy="1809899"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>222367</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>15488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>537062</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>16032</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="直線接點 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{086B988A-8F40-4988-AC26-59E620D01EFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="2"/>
+          <a:endCxn id="9" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9089276" y="4088724"/>
+          <a:ext cx="1977241" cy="582435"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>239884</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>16032</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>537062</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>59228</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="直線接點 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{427CB656-FE9E-4E3D-8FB5-EED4FE9F97A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="2"/>
+          <a:endCxn id="10" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9106793" y="4671159"/>
+          <a:ext cx="1959724" cy="625087"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>214747</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>16032</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>537062</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>89708</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="直線接點 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{276FB49D-CAAD-402D-9359-03A976CB7D8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="2"/>
+          <a:endCxn id="12" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9081656" y="4671159"/>
+          <a:ext cx="1984861" cy="1819349"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>143966</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>176989</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>521822</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>41614</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="直線接點 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87F63895-ADC3-4CC5-A14E-6D94DB700BEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="2"/>
+          <a:endCxn id="11" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9010875" y="2698516"/>
+          <a:ext cx="2040402" cy="2968043"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>222367</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>15488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>521822</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>41614</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="直線接點 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{012EDC0B-A3A9-413F-B811-633D75791B62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="6"/>
+          <a:endCxn id="19" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9089276" y="4088724"/>
+          <a:ext cx="1962001" cy="1577835"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>239884</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>59228</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>521822</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>41614</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="直線接點 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE630DF1-5DE8-4210-92D9-8470613E3161}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="6"/>
+          <a:endCxn id="19" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9106793" y="5296246"/>
+          <a:ext cx="1944484" cy="370313"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>214747</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>41614</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>521822</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>89708</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="直線接點 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7BC1002-50E8-41C7-8776-45FB2DB63DF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="6"/>
+          <a:endCxn id="19" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9081656" y="5666559"/>
+          <a:ext cx="1969621" cy="823949"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>213658</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>134883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>285603</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>145769</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="直線接點 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08A1360C-CB11-4273-A24F-A87B30F8CE1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="6"/>
+          <a:endCxn id="11" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6863840" y="2850374"/>
+          <a:ext cx="1734490" cy="10886"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>213658</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>134883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>293223</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>15488</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="直線接點 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C35F2C3-E222-4BED-BA45-2CC10F1FAD75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="6"/>
+          <a:endCxn id="9" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6863840" y="2850374"/>
+          <a:ext cx="1742110" cy="1238350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>213658</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>134883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>300843</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>59228</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="直線接點 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2411DF6A-9791-4794-9FAD-D89F30C98D16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="6"/>
+          <a:endCxn id="10" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6863840" y="2850374"/>
+          <a:ext cx="1749730" cy="2445872"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>213658</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>134883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>285603</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>89708</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="直線接點 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6764D58-F1BD-4FED-AF54-872DE2A4C660}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="6"/>
+          <a:endCxn id="12" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6863840" y="2850374"/>
+          <a:ext cx="1734490" cy="3640134"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>221278</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>145769</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>285603</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>4602</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="直線接點 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{428FDFF3-8D5C-44CA-9780-313C6ED37E04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="6"/>
+          <a:endCxn id="11" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6871460" y="2861260"/>
+          <a:ext cx="1726870" cy="1216578"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>221278</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>4602</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>293223</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>15488</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="直線接點 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD9BF094-8573-467F-A570-063E35B11971}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="6"/>
+          <a:endCxn id="9" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6871460" y="4077838"/>
+          <a:ext cx="1734490" cy="10886"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238794</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>15488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>293223</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>50322</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="直線接點 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C477D412-A999-45D4-99D8-145005D0CE16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="6"/>
+          <a:endCxn id="9" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6888976" y="4088724"/>
+          <a:ext cx="1716974" cy="1198616"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>213658</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>15488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>293223</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>78822</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="直線接點 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F07520D6-7149-4CA7-8510-3ED6B290339C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="6"/>
+          <a:endCxn id="9" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6863840" y="4088724"/>
+          <a:ext cx="1742110" cy="2390898"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238794</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>145769</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>285603</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>50322</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="直線接點 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{101FA4C7-D280-4B2B-AD66-1A67C610A5C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="6"/>
+          <a:endCxn id="11" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6888976" y="2861260"/>
+          <a:ext cx="1709354" cy="2426080"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>213658</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>145769</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>285603</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>78822</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="直線接點 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B57135E0-C2F6-4AD6-B941-B16EBC4A0A5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="6"/>
+          <a:endCxn id="11" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6863840" y="2861260"/>
+          <a:ext cx="1734490" cy="3618362"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>221278</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>4602</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>300843</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>59228</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="101" name="直線接點 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2A602E5-CAFD-4197-8A15-839385C4C1EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="6"/>
+          <a:endCxn id="10" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6871460" y="4077838"/>
+          <a:ext cx="1742110" cy="1218408"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238794</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>50322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>300843</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>59228</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="103" name="直線接點 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF534F4A-4304-46D8-B5BF-335B17EA74F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="6"/>
+          <a:endCxn id="10" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6888976" y="5287340"/>
+          <a:ext cx="1724594" cy="8906"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>213658</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>59228</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>300843</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>78822</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="105" name="直線接點 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CB16E73-9D6D-4352-AD46-0B8FFA7A2B41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="6"/>
+          <a:endCxn id="10" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6863840" y="5296246"/>
+          <a:ext cx="1749730" cy="1183376"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>221278</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>4602</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>285603</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>89708</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="107" name="直線接點 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F1F68C2-F6D9-4759-BC06-06B2C6C6A8BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="5" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6871460" y="4077838"/>
+          <a:ext cx="1726870" cy="2412670"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238794</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>50322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>285603</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>89708</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="109" name="直線接點 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B3AC542-B039-4444-B22B-7E104017DBAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="6"/>
+          <a:endCxn id="12" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6888976" y="5287340"/>
+          <a:ext cx="1709354" cy="1203168"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>213658</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>78822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>285603</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>89708</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="111" name="直線接點 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88EF54E7-362D-47E5-8EF8-5606FE17A15F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="6"/>
+          <a:endCxn id="12" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6863840" y="6479622"/>
+          <a:ext cx="1734490" cy="10886"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>126321</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>136101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>484747</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>8802</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="112" name="圖片 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86888910-A457-4236-96A9-847F6C046744}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3407403" y="1077395"/>
+          <a:ext cx="4186356" cy="813995"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>53788</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="692434" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="文字方塊 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD0909CC-E793-445E-9B70-1BB632D08CAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4975412" y="2949388"/>
+          <a:ext cx="692434" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>-3.35796</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="763927" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="文字方塊 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3AADFED-FE9A-436D-8E8B-F2D93C456B04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9296400" y="1506071"/>
+          <a:ext cx="763927" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>-1.126933</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>80682</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>125507</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="763927" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="文字方塊 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72486FA1-E6D9-473F-8F9C-05392541A63D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5002306" y="3325907"/>
+          <a:ext cx="763927" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>-1.126993</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>98611</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>80681</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="863698" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="116" name="文字方塊 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{929F96DA-13C6-46F9-A9EC-51FE92603041}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5567082" y="3469340"/>
+          <a:ext cx="863698" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>0.00737043</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>277906</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="413896" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="文字方塊 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACC05B9D-5410-4F95-94A5-39C8D5E25DA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6840071" y="977153"/>
+          <a:ext cx="413896" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>bias</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>170329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>528918</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="矩形 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D501BFDD-281A-48FD-9ED8-8BDC101AF4DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4554070" y="1111623"/>
+          <a:ext cx="1990166" cy="206189"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400005</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>188258</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="121" name="直線單箭頭接點 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC669D72-B32C-4AE8-9AB3-845A85CF0D1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="113" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5321629" y="1255059"/>
+          <a:ext cx="335100" cy="1694329"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>80682</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>107577</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="矩形 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91891E8B-7409-47A7-9B20-DC3A0CB85F46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5002306" y="2788024"/>
+          <a:ext cx="1559859" cy="1084729"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>484094</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>143436</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1022652" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="文字方塊 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC307A8C-A900-458D-97BA-CD1D757009BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7593106" y="1084730"/>
+          <a:ext cx="1022652" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Layer0-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Node0</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>475130</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1022652" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="文字方塊 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D7F7988-0C47-41FA-86AD-376319D19EDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7584142" y="1264024"/>
+          <a:ext cx="1022652" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Layer0-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Node1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>466165</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>116542</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1022652" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="125" name="文字方塊 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97AE837D-7B21-48DD-8BAB-AC41C4FEABA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7575177" y="1434354"/>
+          <a:ext cx="1022652" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Layer0-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Node2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>475129</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>107576</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1022652" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="126" name="文字方塊 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67DBBC0D-27F3-4F5F-A2C9-041A547F4E5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7584141" y="1613647"/>
+          <a:ext cx="1022652" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Layer0-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Node3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>44822</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1063946" cy="280205"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="127" name="文字方塊 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A31112D1-BB6A-43ED-A60A-261896F518CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6060140" y="2823882"/>
+          <a:ext cx="1063946" cy="280205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Layer0-Node0</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>62753</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1063946" cy="280205"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="128" name="文字方塊 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{755DF013-1E0C-40C9-AA72-698847A9B418}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6078071" y="3989294"/>
+          <a:ext cx="1063946" cy="280205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Layer0-Node1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>98613</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1063946" cy="280205"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="文字方塊 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E09C198-D32A-4933-85BA-0270963982B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6060141" y="5181601"/>
+          <a:ext cx="1063946" cy="280205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Layer0-Node2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1063946" cy="280205"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="130" name="文字方塊 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C58A5677-A03A-4640-A1B5-13F0A5FB3B58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6060142" y="6364941"/>
+          <a:ext cx="1063946" cy="280205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Layer0-Node3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>251012</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>143436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>281493</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>143435</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="131" name="圖片 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECAA0F0F-5D75-4ACC-BC76-C0DBE78EBC4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7360024" y="7109012"/>
+          <a:ext cx="4952104" cy="753035"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>107577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>143436</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="132" name="矩形 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE17B3BC-9601-46BA-A341-B968AA429574}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8516471" y="7637930"/>
+          <a:ext cx="2644588" cy="224118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>215152</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="692434" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="133" name="文字方塊 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A32343DA-50A6-4F67-AF74-D0C075A6EC1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7871011" y="5782235"/>
+          <a:ext cx="692434" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>-3.56605</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>546846</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="763927" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="134" name="文字方塊 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F22055AD-376B-4229-9DA5-39AB53410E25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7655858" y="5988424"/>
+          <a:ext cx="763927" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>-1.812533</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>430305</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="878638" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="文字方塊 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D87878C6-D75C-4965-B659-45603ADDBC32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8086164" y="5558118"/>
+          <a:ext cx="878638" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>--3.6488092</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>53788</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="792205" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="137" name="文字方塊 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A10FB6A0-A4AA-4EAF-9777-223F194079BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7162800" y="6221506"/>
+          <a:ext cx="792205" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>1.8006505</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>53788</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>286871</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="138" name="矩形 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94049CA2-DBEC-4FE9-8643-9E8B9E328D55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7162800" y="5450541"/>
+          <a:ext cx="1873624" cy="1156447"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>62752</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1063946" cy="280205"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="139" name="文字方塊 138">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EA30AC1-EDFD-4DC8-8BE4-1BD7F785D301}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8265458" y="2814918"/>
+          <a:ext cx="1063946" cy="280205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Layer1-Node0</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>26894</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1063946" cy="280205"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="文字方塊 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56EBC5BF-4FFC-4A0C-89F6-5EC9DADE5014}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="3998259"/>
+          <a:ext cx="1063946" cy="280205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Layer1-Node1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>98612</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>116541</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1063946" cy="280205"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="文字方塊 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D202D878-C374-45F8-B5EB-BE79C4FAE509}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8301318" y="5199529"/>
+          <a:ext cx="1063946" cy="280205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Layer1-Node2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>26894</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1063946" cy="280205"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="142" name="文字方塊 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25835AF0-8D99-49E0-BC2A-220E7249A78D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="6409765"/>
+          <a:ext cx="1063946" cy="280205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Layer1-Node3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>259975</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1022652" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="143" name="文字方塊 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ECB9C23-0D18-4837-9501-0BFDE18D1C5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12290610" y="7037294"/>
+          <a:ext cx="1022652" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Layer1-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Node0</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>251011</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1022652" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="144" name="文字方塊 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FA27E9C-E37E-4A53-A242-AC5D552904F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12281646" y="7216588"/>
+          <a:ext cx="1022652" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Layer1-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Node1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>242046</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1022652" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="145" name="文字方塊 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B805D4C0-1AFF-4A58-8BBD-059ECD1C5057}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12272681" y="7386918"/>
+          <a:ext cx="1022652" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Layer1-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Node2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>251010</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>35858</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1022652" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="146" name="文字方塊 145">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E968463-A7F0-4555-B68C-EA79C6DFC191}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12281645" y="7566211"/>
+          <a:ext cx="1022652" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Layer1-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Node3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>421342</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="147" name="直線單箭頭接點 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09BB4FFB-88F8-4168-8B61-8F0B4CF7C833}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9063318" y="6678706"/>
+          <a:ext cx="654424" cy="941294"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>215153</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>98611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>390413</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>106231</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="151" name="圖片 150">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A7E6FAA-08FC-47BC-A082-807F45A9D9B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10058400" y="2545976"/>
+          <a:ext cx="5643731" cy="572396"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>89648</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>98611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>466164</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>98611</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="152" name="矩形 151">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6236A736-77DC-47C9-8E51-14BBFEEFBA91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11573436" y="2545976"/>
+          <a:ext cx="3110752" cy="188259"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>394447</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="835422" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="153" name="文字方塊 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D426D5C-0AC7-4879-8A36-3E3275FD42C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9690847" y="3048000"/>
+          <a:ext cx="835422" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>-3.0573914</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>98611</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="906915" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="154" name="文字方塊 153">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{341B8C36-88D6-47CC-8B01-B5DAA770616D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9941858" y="3550024"/>
+          <a:ext cx="906915" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>-0.33590198</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>98612</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="835422" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="155" name="文字方塊 154">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B600B304-E566-4C9E-B755-8BCC67F614F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9941859" y="3783105"/>
+          <a:ext cx="835422" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>-2.9392657</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>35860</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="792205" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="156" name="文字方塊 155">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFA8E7C3-33DD-4FDE-B598-801FB40C5E91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10425954" y="3944471"/>
+          <a:ext cx="792205" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>3.5195374</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>502024</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1152495" cy="280205"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="157" name="文字方塊 156">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DFE9B31-F2A4-4FF0-8D2D-0484A3FFD45F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10892118" y="3254188"/>
+          <a:ext cx="1152495" cy="280205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ANNOutputs[0]</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1152495" cy="280205"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="158" name="文字方塊 157">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4B6DEEE-E634-4212-A193-70409B6DAD4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10847294" y="4186517"/>
+          <a:ext cx="1152495" cy="280205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ANNOutputs[1]</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>510988</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>80683</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1152495" cy="280205"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="159" name="文字方塊 158">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54E39A2D-9FDA-4E5C-BC8B-250F57DAD75D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10901082" y="5163671"/>
+          <a:ext cx="1152495" cy="280205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ANNOutputs[2]</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8313,10 +14661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC3886C-F60B-4A5C-A85A-A3DB892384B4}">
-  <dimension ref="A4:C4"/>
+  <dimension ref="A4:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -8334,6 +14682,25 @@
       </c>
       <c r="C4" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>20200408</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>20200415</v>
+      </c>
+      <c r="B6" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -8364,8 +14731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD0389E1-4AFF-475A-90D0-EB65AF0D5B90}">
   <dimension ref="A5:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -8908,8 +15275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7401B850-25D7-4E26-9E19-C6A0AEE4577A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -9038,4 +15405,21 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBCFBDB-5166-480F-80AB-8FD60A7D3C4C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Project_RPSRobot_20200330_0/Project_RPSRobot_20200330_0.xlsx
+++ b/Project_RPSRobot_20200330_0/Project_RPSRobot_20200330_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a59c1bdb761853cd/NAER/EELAB/EELAB/Project_RPSRobot_20200330_0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="114_{BAB8388F-520A-4786-92C7-6169383AA95C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6CB9B44C-D679-4C7B-8D17-46003CCF3A44}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="114_{BAB8388F-520A-4786-92C7-6169383AA95C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EAA478F1-1D2A-4385-8AA5-A5ECE639E54A}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="8520" yWindow="276" windowWidth="12504" windowHeight="12084" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="History" sheetId="7" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="MachineLearningANN_2" sheetId="11" r:id="rId9"/>
     <sheet name="工作表1" sheetId="9" r:id="rId10"/>
     <sheet name="scoreBoard" sheetId="10" r:id="rId11"/>
+    <sheet name="Overview" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23545,6 +23546,72 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{304A6E42-7B1B-4499-90C6-1D49DE92842A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10721340" cy="6256020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -23808,10 +23875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC3886C-F60B-4A5C-A85A-A3DB892384B4}">
-  <dimension ref="A4:C10"/>
+  <dimension ref="A4:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -23881,6 +23948,9 @@
       <c r="B10" s="14" t="s">
         <v>131</v>
       </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -24054,8 +24124,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A1B622-AE3F-452A-B88F-5E455B497A82}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393B70F7-CE77-43E8-8948-5F4091DCCBCF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -27684,7 +27771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBCFBDB-5166-480F-80AB-8FD60A7D3C4C}">
   <dimension ref="E3:AY62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AF12" sqref="AF12:AY42"/>
     </sheetView>
   </sheetViews>

--- a/Project_RPSRobot_20200330_0/Project_RPSRobot_20200330_0.xlsx
+++ b/Project_RPSRobot_20200330_0/Project_RPSRobot_20200330_0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="74" documentId="114_{BAB8388F-520A-4786-92C7-6169383AA95C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EAA478F1-1D2A-4385-8AA5-A5ECE639E54A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="7104" windowWidth="7680" windowHeight="4884" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="History" sheetId="7" r:id="rId1"/>
@@ -24124,7 +24124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A1B622-AE3F-452A-B88F-5E455B497A82}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
@@ -26684,8 +26684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD0389E1-4AFF-475A-90D0-EB65AF0D5B90}">
   <dimension ref="A5:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
